--- a/gen_specs.xlsx
+++ b/gen_specs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,13 +481,13 @@
         <v>99.74976666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>99.21210294488397</v>
+        <v>98.45021653013328</v>
       </c>
       <c r="H2" t="n">
-        <v>99.67295756355485</v>
+        <v>98.9879166471619</v>
       </c>
       <c r="I2" t="n">
-        <v>98.71906658864759</v>
+        <v>96.29921377279716</v>
       </c>
     </row>
     <row r="3">
@@ -512,13 +512,13 @@
         <v>37406.1625</v>
       </c>
       <c r="G3" t="n">
-        <v>37204.53860433149</v>
+        <v>36918.83119879998</v>
       </c>
       <c r="H3" t="n">
-        <v>37377.35908633307</v>
+        <v>37120.46874268571</v>
       </c>
       <c r="I3" t="n">
-        <v>37019.64997074284</v>
+        <v>36112.20516479894</v>
       </c>
     </row>
     <row r="4">
@@ -528,28 +528,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.59450522898</v>
+        <v>14258.4621913996</v>
       </c>
       <c r="C4" t="n">
-        <v>11797.87366336231</v>
+        <v>13248.68093148563</v>
       </c>
       <c r="D4" t="n">
-        <v>10466.096105873</v>
+        <v>12190.44733140335</v>
       </c>
       <c r="E4" t="n">
-        <v>9552.510224602545</v>
+        <v>13921.96892413331</v>
       </c>
       <c r="F4" t="n">
-        <v>9814.777313804403</v>
+        <v>11707.65112541903</v>
       </c>
       <c r="G4" t="n">
-        <v>12893.40190226429</v>
+        <v>11845.99096864862</v>
       </c>
       <c r="H4" t="n">
-        <v>10296.62571320005</v>
+        <v>10384.97483741161</v>
       </c>
       <c r="I4" t="n">
-        <v>56007.07444774062</v>
+        <v>12594.13890224252</v>
       </c>
     </row>
     <row r="5">
@@ -559,28 +559,90 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5832.55250290499</v>
+        <v>7921.367884110889</v>
       </c>
       <c r="C5" t="n">
-        <v>5129.510288418396</v>
+        <v>5760.296057167665</v>
       </c>
       <c r="D5" t="n">
-        <v>5814.497836596111</v>
+        <v>6772.470739668529</v>
       </c>
       <c r="E5" t="n">
-        <v>5306.950124779191</v>
+        <v>7734.427180074063</v>
       </c>
       <c r="F5" t="n">
-        <v>5452.654063224668</v>
+        <v>6504.250625232793</v>
       </c>
       <c r="G5" t="n">
-        <v>4297.800634088096</v>
+        <v>3948.663656216207</v>
       </c>
       <c r="H5" t="n">
-        <v>5720.347618444473</v>
+        <v>5769.430465228672</v>
       </c>
       <c r="I5" t="n">
-        <v>2240.282977909625</v>
+        <v>503.7655560897006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Wind, Solar, Storage cost</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>779240.7964938588</v>
+      </c>
+      <c r="C6" t="n">
+        <v>889320.9515952024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>760190.6370774501</v>
+      </c>
+      <c r="E6" t="n">
+        <v>696605.1618240763</v>
+      </c>
+      <c r="F6" t="n">
+        <v>796655.6180435861</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1012612.846051695</v>
+      </c>
+      <c r="H6" t="n">
+        <v>790298.6049150993</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1607160.85842295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Total cost</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1173108.513778849</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1257915.333968676</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1102329.179448867</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1082002.940600075</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126753.058679062</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1345681.45146671</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1087043.444593075</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1958126.536143812</v>
       </c>
     </row>
   </sheetData>

--- a/gen_specs.xlsx
+++ b/gen_specs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,378 @@
         <v>1958126.536143812</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Mean generator annual energy produced</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21409.10238948889</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15568.36772207477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18303.9749720771</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20903.85724344341</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17579.05574387241</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10672.06393571948</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15593.05531142884</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1361.528529972164</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Max generator annual energy produced</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26566.35777764946</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19775.25249240549</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23203.04912111473</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25986.46540410689</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22245.78716356637</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14084.02990310441</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20250.38870486392</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1361.528529972164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Min generator annual energy produced</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15979.86715314432</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11217.87305454951</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14258.34007619893</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15216.55291191587</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12562.65846977299</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7394.02416246782</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11213.88762898819</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1361.528529972164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Mean solar annual energy produced</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>112948.3960114163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132953.5324623563</v>
+      </c>
+      <c r="D11" t="n">
+        <v>171075.1881579973</v>
+      </c>
+      <c r="E11" t="n">
+        <v>98369.08435258492</v>
+      </c>
+      <c r="F11" t="n">
+        <v>117224.5641975307</v>
+      </c>
+      <c r="G11" t="n">
+        <v>152857.3761982755</v>
+      </c>
+      <c r="H11" t="n">
+        <v>137082.9191729289</v>
+      </c>
+      <c r="I11" t="n">
+        <v>190153.8972822749</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Max solar annual energy produced</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>114955.3749461657</v>
+      </c>
+      <c r="C12" t="n">
+        <v>135315.9824693975</v>
+      </c>
+      <c r="D12" t="n">
+        <v>174115.0214891115</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100117.0036422601</v>
+      </c>
+      <c r="F12" t="n">
+        <v>119307.5263226045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>155573.4974083544</v>
+      </c>
+      <c r="H12" t="n">
+        <v>139518.7442117033</v>
+      </c>
+      <c r="I12" t="n">
+        <v>190153.8972822749</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Min solar annual energy produced</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>109327.8713570837</v>
+      </c>
+      <c r="C13" t="n">
+        <v>128691.7495671665</v>
+      </c>
+      <c r="D13" t="n">
+        <v>165591.4278006742</v>
+      </c>
+      <c r="E13" t="n">
+        <v>95215.89486340735</v>
+      </c>
+      <c r="F13" t="n">
+        <v>113466.9683417412</v>
+      </c>
+      <c r="G13" t="n">
+        <v>147957.5819677623</v>
+      </c>
+      <c r="H13" t="n">
+        <v>132688.7701094635</v>
+      </c>
+      <c r="I13" t="n">
+        <v>190153.8972822749</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Mean wind annual energy produced simple</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>442247.0637362942</v>
+      </c>
+      <c r="C14" t="n">
+        <v>450499.4776200624</v>
+      </c>
+      <c r="D14" t="n">
+        <v>387321.3256577346</v>
+      </c>
+      <c r="E14" t="n">
+        <v>521930.0434661582</v>
+      </c>
+      <c r="F14" t="n">
+        <v>442247.0637362942</v>
+      </c>
+      <c r="G14" t="n">
+        <v>500013.9609226712</v>
+      </c>
+      <c r="H14" t="n">
+        <v>387321.3256577346</v>
+      </c>
+      <c r="I14" t="n">
+        <v>702949.0133613221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Max wind annual energy produced simple</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>473230.248447242</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481737.8131523934</v>
+      </c>
+      <c r="D15" t="n">
+        <v>414133.4919456445</v>
+      </c>
+      <c r="E15" t="n">
+        <v>557849.6990642938</v>
+      </c>
+      <c r="F15" t="n">
+        <v>473230.248447242</v>
+      </c>
+      <c r="G15" t="n">
+        <v>532783.201383302</v>
+      </c>
+      <c r="H15" t="n">
+        <v>414133.4919456445</v>
+      </c>
+      <c r="I15" t="n">
+        <v>702949.0133613221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Min wind annual energy produced simple</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>418496.4647264747</v>
+      </c>
+      <c r="C16" t="n">
+        <v>426214.5594428582</v>
+      </c>
+      <c r="D16" t="n">
+        <v>366429.3501962189</v>
+      </c>
+      <c r="E16" t="n">
+        <v>493717.8634058809</v>
+      </c>
+      <c r="F16" t="n">
+        <v>418496.4647264747</v>
+      </c>
+      <c r="G16" t="n">
+        <v>472523.1277411588</v>
+      </c>
+      <c r="H16" t="n">
+        <v>366429.3501962189</v>
+      </c>
+      <c r="I16" t="n">
+        <v>702949.0133613221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Mean wind annual energy produced phys</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>701766.8052604602</v>
+      </c>
+      <c r="C17" t="n">
+        <v>710326.218241684</v>
+      </c>
+      <c r="D17" t="n">
+        <v>610073.8174901897</v>
+      </c>
+      <c r="E17" t="n">
+        <v>819138.0319744024</v>
+      </c>
+      <c r="F17" t="n">
+        <v>701766.8052604602</v>
+      </c>
+      <c r="G17" t="n">
+        <v>761682.6961290272</v>
+      </c>
+      <c r="H17" t="n">
+        <v>610073.8174901897</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1116105.593069735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Max wind annual energy produced phys</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>730099.7462469693</v>
+      </c>
+      <c r="C18" t="n">
+        <v>739003.5855247841</v>
+      </c>
+      <c r="D18" t="n">
+        <v>634703.6217752169</v>
+      </c>
+      <c r="E18" t="n">
+        <v>852207.3885521657</v>
+      </c>
+      <c r="F18" t="n">
+        <v>730099.7462469693</v>
+      </c>
+      <c r="G18" t="n">
+        <v>792426.6211916722</v>
+      </c>
+      <c r="H18" t="n">
+        <v>634703.6217752169</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1116105.593069735</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Min wind annual energy produced phys</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>657324.6724578863</v>
+      </c>
+      <c r="C19" t="n">
+        <v>665333.4935073602</v>
+      </c>
+      <c r="D19" t="n">
+        <v>571429.9688705193</v>
+      </c>
+      <c r="E19" t="n">
+        <v>767245.8391936752</v>
+      </c>
+      <c r="F19" t="n">
+        <v>657324.6724578863</v>
+      </c>
+      <c r="G19" t="n">
+        <v>713386.4198042038</v>
+      </c>
+      <c r="H19" t="n">
+        <v>571429.9688705193</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1116105.593069735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/gen_specs.xlsx
+++ b/gen_specs.xlsx
@@ -549,7 +549,7 @@
         <v>10384.97483741161</v>
       </c>
       <c r="I4" t="n">
-        <v>12594.13890224252</v>
+        <v>12193.21001846943</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>5769.430465228672</v>
       </c>
       <c r="I5" t="n">
-        <v>503.7655560897006</v>
+        <v>487.7284007387773</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
         <v>1087043.444593075</v>
       </c>
       <c r="I7" t="n">
-        <v>1958126.536143812</v>
+        <v>1948103.314049485</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>15593.05531142884</v>
       </c>
       <c r="I8" t="n">
-        <v>1361.528529972164</v>
+        <v>1318.18486686156</v>
       </c>
     </row>
     <row r="9">
@@ -704,7 +704,7 @@
         <v>20250.38870486392</v>
       </c>
       <c r="I9" t="n">
-        <v>1361.528529972164</v>
+        <v>2921.864332712063</v>
       </c>
     </row>
     <row r="10">
@@ -735,7 +735,7 @@
         <v>11213.88762898819</v>
       </c>
       <c r="I10" t="n">
-        <v>1361.528529972164</v>
+        <v>511.4790361655596</v>
       </c>
     </row>
     <row r="11">
@@ -766,7 +766,7 @@
         <v>137082.9191729289</v>
       </c>
       <c r="I11" t="n">
-        <v>190153.8972822749</v>
+        <v>189988.6971596853</v>
       </c>
     </row>
     <row r="12">
@@ -797,7 +797,7 @@
         <v>139518.7442117033</v>
       </c>
       <c r="I12" t="n">
-        <v>190153.8972822749</v>
+        <v>193364.6044457119</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
         <v>132688.7701094635</v>
       </c>
       <c r="I13" t="n">
-        <v>190153.8972822749</v>
+        <v>183898.670329719</v>
       </c>
     </row>
     <row r="14">
@@ -859,7 +859,7 @@
         <v>387321.3256577346</v>
       </c>
       <c r="I14" t="n">
-        <v>702949.0133613221</v>
+        <v>727969.3271206778</v>
       </c>
     </row>
     <row r="15">
@@ -890,7 +890,7 @@
         <v>414133.4919456445</v>
       </c>
       <c r="I15" t="n">
-        <v>702949.0133613221</v>
+        <v>777677.7920948432</v>
       </c>
     </row>
     <row r="16">
@@ -921,7 +921,7 @@
         <v>366429.3501962189</v>
       </c>
       <c r="I16" t="n">
-        <v>702949.0133613221</v>
+        <v>688509.6805785655</v>
       </c>
     </row>
     <row r="17">
@@ -952,7 +952,7 @@
         <v>610073.8174901897</v>
       </c>
       <c r="I17" t="n">
-        <v>1116105.593069735</v>
+        <v>1137014.060191333</v>
       </c>
     </row>
     <row r="18">
@@ -983,7 +983,7 @@
         <v>634703.6217752169</v>
       </c>
       <c r="I18" t="n">
-        <v>1116105.593069735</v>
+        <v>1182914.958356496</v>
       </c>
     </row>
     <row r="19">
@@ -1014,7 +1014,7 @@
         <v>571429.9688705193</v>
       </c>
       <c r="I19" t="n">
-        <v>1116105.593069735</v>
+        <v>1064974.055203146</v>
       </c>
     </row>
   </sheetData>
